--- a/dialogueflow.xlsx
+++ b/dialogueflow.xlsx
@@ -619,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85A325E-EA6E-4DC3-B9A4-B99532DFEE61}">
   <dimension ref="A3:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="67" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="67" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
